--- a/resources/tools/YARNCalcs.xlsx
+++ b/resources/tools/YARNCalcs.xlsx
@@ -427,18 +427,18 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.85204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.3877551020408"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.8469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -446,7 +446,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4" t="s">
@@ -468,7 +468,7 @@
       </c>
       <c r="F2" s="7" t="n">
         <f aca="false">MIN(C15,PRODUCT(B2,2))</f>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -476,7 +476,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="6" t="s">
@@ -484,7 +484,7 @@
       </c>
       <c r="F3" s="7" t="n">
         <f aca="false">PRODUCT(B15,1024)</f>
-        <v>10752</v>
+        <v>49356.8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -506,14 +506,14 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -547,7 +547,7 @@
       </c>
       <c r="B8" s="7" t="n">
         <f aca="false">PRODUCT(0.1,B3)</f>
-        <v>1.5</v>
+        <v>12.8</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>2</v>
@@ -557,7 +557,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -565,10 +565,10 @@
         <v>16</v>
       </c>
       <c r="B9" s="6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="6" t="s">
@@ -576,7 +576,7 @@
       </c>
       <c r="F9" s="11" t="n">
         <f aca="false">PRODUCT(F2,1024)</f>
-        <v>3072</v>
+        <v>7168</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -584,10 +584,10 @@
         <v>18</v>
       </c>
       <c r="B10" s="6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="6" t="s">
@@ -602,10 +602,10 @@
         <v>20</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="8" t="s">
@@ -635,7 +635,7 @@
       </c>
       <c r="G12" s="7" t="n">
         <f aca="false">F3/F12</f>
-        <v>10.5</v>
+        <v>48.2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -674,11 +674,11 @@
         <v>28</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="7" t="n">
         <f aca="false">F2/F14</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -687,11 +687,11 @@
       </c>
       <c r="B15" s="7" t="n">
         <f aca="false">SUM(B3,-B8,-B9,-B10,-B11,-B12,-B13,-B14)</f>
-        <v>10.5</v>
+        <v>48.2</v>
       </c>
       <c r="C15" s="7" t="n">
         <f aca="false">SUM(B1,-C8,-C9,-C10,-C11,-C12,-C13,-C14)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="6" t="s">
@@ -716,7 +716,7 @@
         <v>32</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -807,7 +807,7 @@
       </c>
       <c r="F27" s="11" t="n">
         <f aca="false">MIN(G12,G14,PRODUCT(B4,B5))</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -817,7 +817,7 @@
       </c>
       <c r="F28" s="11" t="n">
         <f aca="false">MIN(G12,G14,PRODUCT(B4,B5))</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
